--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A378D16-209E-45E9-8BF0-D1780D160723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19374B-D922-40B9-A6CF-9DBA310996E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>UniqueID</t>
-  </si>
-  <si>
-    <t>JohnAlexMax</t>
+    <t>alexjohnmax</t>
   </si>
 </sst>
 </file>
@@ -391,31 +388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F3C08-BE5E-494B-8608-8D0F0A7C7698}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
     </row>

--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19374B-D922-40B9-A6CF-9DBA310996E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E5D26-CBFD-4E11-8ADC-C09BBE026D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>alexjohnmax</t>
+  </si>
+  <si>
+    <t>bradfrankgary</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F3C08-BE5E-494B-8608-8D0F0A7C7698}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +413,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926E5D26-CBFD-4E11-8ADC-C09BBE026D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A5650-016C-4FBB-96EA-2E055A231F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>alexjohnmax</t>
-  </si>
-  <si>
-    <t>bradfrankgary</t>
   </si>
 </sst>
 </file>
@@ -391,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F3C08-BE5E-494B-8608-8D0F0A7C7698}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,11 +410,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A5650-016C-4FBB-96EA-2E055A231F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39E4F1-89A6-46BA-A192-E5959CE6D658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>alexjohnmax</t>
+  </si>
+  <si>
+    <t>bradfrankgary</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F3C08-BE5E-494B-8608-8D0F0A7C7698}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +413,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39E4F1-89A6-46BA-A192-E5959CE6D658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCF187-C2A5-4215-9B55-0E2EB777FD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>alexjohnmax</t>
-  </si>
-  <si>
-    <t>bradfrankgary</t>
   </si>
 </sst>
 </file>
@@ -391,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F3C08-BE5E-494B-8608-8D0F0A7C7698}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,11 +410,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ClientTestListExcel.xlsx
+++ b/ClientTestListExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjit\Documents\GitHub\ClientListTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DCF187-C2A5-4215-9B55-0E2EB777FD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414689E4-5B29-468C-9046-C39BAE15642C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{23AB7CC9-1338-4AC3-AE81-A1D193BC815D}"/>
   </bookViews>
